--- a/generated_docs/WR_89700562_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89700562_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/17/2025 to 07/20/25</t>
+          <t>07/14/2025 to 07/20/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/generated_docs/WR_89700562_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89700562_WeekEnding_072025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I68"/>
+  <dimension ref="A2:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>21932.5</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>790.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="H24" s="16" t="n">
-        <v>5160.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G29" s="10" t="inlineStr"/>
       <c r="H29" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G30" s="13" t="inlineStr"/>
       <c r="H30" s="14" t="n">
-        <v>66.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G31" s="10" t="inlineStr"/>
       <c r="H31" s="11" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>480.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="G37" s="10" t="inlineStr"/>
       <c r="H37" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="G38" s="13" t="inlineStr"/>
       <c r="H38" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="G39" s="10" t="inlineStr"/>
       <c r="H39" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G40" s="13" t="inlineStr"/>
       <c r="H40" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="11" t="n">
-        <v>2620.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G42" s="13" t="inlineStr"/>
       <c r="H42" s="14" t="n">
-        <v>2620.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="G43" s="10" t="inlineStr"/>
       <c r="H43" s="11" t="n">
-        <v>2620.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G44" s="13" t="inlineStr"/>
       <c r="H44" s="14" t="n">
-        <v>2620.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="G45" s="10" t="inlineStr"/>
       <c r="H45" s="11" t="n">
-        <v>790.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="G46" s="13" t="inlineStr"/>
       <c r="H46" s="14" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B47" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>GYF-38-42W-I-C</t>
         </is>
       </c>
       <c r="C47" s="9" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="D47" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>GYF,3/8,42In Wire Mt,InsulatorAdder,Corr</t>
         </is>
       </c>
       <c r="E47" s="9" t="inlineStr">
@@ -1593,11 +1593,11 @@
         </is>
       </c>
       <c r="F47" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="10" t="inlineStr"/>
       <c r="H47" s="11" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B48" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C48" s="12" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="D48" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E48" s="12" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="G48" s="13" t="inlineStr"/>
       <c r="H48" s="14" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B49" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C49" s="9" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D49" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E49" s="9" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B50" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C50" s="12" t="inlineStr">
@@ -1686,20 +1686,20 @@
       </c>
       <c r="D50" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E50" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F50" s="13" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1729,11 +1729,11 @@
         </is>
       </c>
       <c r="F51" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>SWI-27-CO1-100-H</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1767,18 +1767,18 @@
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>ARR-10-R</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="D53" s="9" t="inlineStr">
         <is>
-          <t>ARR,10kV,Riser Pole</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E53" s="9" t="inlineStr">
@@ -1801,18 +1801,18 @@
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>66.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
@@ -1831,22 +1831,22 @@
         </is>
       </c>
       <c r="F54" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B55" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SWI-27-CO1-100-H</t>
         </is>
       </c>
       <c r="C55" s="9" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="D55" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook</t>
         </is>
       </c>
       <c r="E55" s="9" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="B56" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>ARR-10-R</t>
         </is>
       </c>
       <c r="C56" s="12" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>ARR,10kV,Riser Pole</t>
         </is>
       </c>
       <c r="E56" s="12" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C57" s="9" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="D57" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E57" s="9" t="inlineStr">
@@ -1933,11 +1933,11 @@
         </is>
       </c>
       <c r="F57" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="B58" s="12" t="inlineStr">
         <is>
-          <t>SWI-27-CO1-100-H-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C58" s="12" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E58" s="12" t="inlineStr">
@@ -1971,231 +1971,333 @@
       </c>
       <c r="G58" s="13" t="inlineStr"/>
       <c r="H58" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="15" t="inlineStr">
+      <c r="A59" s="9" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B59" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C59" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E59" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="10" t="inlineStr"/>
+      <c r="H59" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="12" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B60" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C60" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D60" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E60" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F60" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="13" t="inlineStr"/>
+      <c r="H60" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B61" s="9" t="inlineStr">
+        <is>
+          <t>SWI-27-CO1-100-H-C</t>
+        </is>
+      </c>
+      <c r="C61" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+        </is>
+      </c>
+      <c r="E61" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="10" t="inlineStr"/>
+      <c r="H61" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H59" s="16" t="n">
-        <v>15338.72</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="7" t="inlineStr">
+      <c r="H62" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="inlineStr">
         <is>
           <t>Thursday (07/17/2025)</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="8" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
+      <c r="B66" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C63" s="8" t="inlineStr">
+      <c r="C66" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D63" s="8" t="inlineStr">
+      <c r="D66" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E63" s="8" t="inlineStr">
+      <c r="E66" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F63" s="8" t="inlineStr">
+      <c r="F66" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G63" s="8" t="inlineStr">
+      <c r="G66" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H63" s="8" t="inlineStr">
+      <c r="H66" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="9" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="9" t="inlineStr">
         <is>
           <t>Point 10</t>
         </is>
       </c>
-      <c r="B64" s="9" t="inlineStr">
+      <c r="B67" s="9" t="inlineStr">
         <is>
           <t>PLA-DLOC</t>
         </is>
       </c>
-      <c r="C64" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D64" s="9" t="inlineStr">
+      <c r="C67" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
         <is>
           <t>PLA,Difficult Location</t>
         </is>
       </c>
-      <c r="E64" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F64" s="10" t="n">
+      <c r="E67" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F67" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G64" s="10" t="inlineStr"/>
-      <c r="H64" s="11" t="n">
-        <v>238.2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="12" t="inlineStr">
+      <c r="G67" s="10" t="inlineStr"/>
+      <c r="H67" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="12" t="inlineStr">
         <is>
           <t>Point 10</t>
         </is>
       </c>
-      <c r="B65" s="12" t="inlineStr">
+      <c r="B68" s="12" t="inlineStr">
         <is>
           <t>PLA-DLOC</t>
         </is>
       </c>
-      <c r="C65" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D65" s="12" t="inlineStr">
+      <c r="C68" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D68" s="12" t="inlineStr">
         <is>
           <t>PLA,Difficult Location</t>
         </is>
       </c>
-      <c r="E65" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F65" s="13" t="n">
+      <c r="E68" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F68" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G65" s="13" t="inlineStr"/>
-      <c r="H65" s="14" t="n">
-        <v>238.2</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="9" t="inlineStr">
+      <c r="G68" s="13" t="inlineStr"/>
+      <c r="H68" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="inlineStr">
         <is>
           <t>Point 09</t>
         </is>
       </c>
-      <c r="B66" s="9" t="inlineStr">
+      <c r="B69" s="9" t="inlineStr">
         <is>
           <t>PLA-DLOC</t>
         </is>
       </c>
-      <c r="C66" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D66" s="9" t="inlineStr">
+      <c r="C69" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D69" s="9" t="inlineStr">
         <is>
           <t>PLA,Difficult Location</t>
         </is>
       </c>
-      <c r="E66" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F66" s="10" t="n">
+      <c r="E69" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F69" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G66" s="10" t="inlineStr"/>
-      <c r="H66" s="11" t="n">
-        <v>238.2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="12" t="inlineStr">
+      <c r="G69" s="10" t="inlineStr"/>
+      <c r="H69" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="12" t="inlineStr">
         <is>
           <t>Point 09</t>
         </is>
       </c>
-      <c r="B67" s="12" t="inlineStr">
+      <c r="B70" s="12" t="inlineStr">
         <is>
           <t>PLA-DLOC</t>
         </is>
       </c>
-      <c r="C67" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D67" s="12" t="inlineStr">
+      <c r="C70" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D70" s="12" t="inlineStr">
         <is>
           <t>PLA,Difficult Location</t>
         </is>
       </c>
-      <c r="E67" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F67" s="13" t="n">
+      <c r="E70" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F70" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G67" s="13" t="inlineStr"/>
-      <c r="H67" s="14" t="n">
-        <v>238.2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="15" t="inlineStr">
+      <c r="G70" s="13" t="inlineStr"/>
+      <c r="H70" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H68" s="16" t="n">
-        <v>952.8</v>
+      <c r="H71" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A68:G68"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A62:G62"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A71:G71"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="G11:I11"/>

--- a/generated_docs/WR_89700562_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89700562_WeekEnding_072025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I71"/>
+  <dimension ref="A2:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>21932.5</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P23</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>790.5599999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="24">
@@ -1013,7 +1009,7 @@
         </is>
       </c>
       <c r="H24" s="16" t="n">
-        <v>0</v>
+        <v>5160.29</v>
       </c>
     </row>
     <row r="27">
@@ -1096,7 +1092,7 @@
       </c>
       <c r="G29" s="10" t="inlineStr"/>
       <c r="H29" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="30">
@@ -1130,7 +1126,7 @@
       </c>
       <c r="G30" s="13" t="inlineStr"/>
       <c r="H30" s="14" t="n">
-        <v>0</v>
+        <v>66.72</v>
       </c>
     </row>
     <row r="31">
@@ -1164,7 +1160,7 @@
       </c>
       <c r="G31" s="10" t="inlineStr"/>
       <c r="H31" s="11" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="32">
@@ -1174,7 +1170,7 @@
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>0</v>
+        <v>480.69</v>
       </c>
     </row>
     <row r="35">
@@ -1257,7 +1253,7 @@
       </c>
       <c r="G37" s="10" t="inlineStr"/>
       <c r="H37" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="38">
@@ -1291,7 +1287,7 @@
       </c>
       <c r="G38" s="13" t="inlineStr"/>
       <c r="H38" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="39">
@@ -1325,7 +1321,7 @@
       </c>
       <c r="G39" s="10" t="inlineStr"/>
       <c r="H39" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="40">
@@ -1359,7 +1355,7 @@
       </c>
       <c r="G40" s="13" t="inlineStr"/>
       <c r="H40" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="41">
@@ -1393,7 +1389,7 @@
       </c>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="11" t="n">
-        <v>0</v>
+        <v>2620.2</v>
       </c>
     </row>
     <row r="42">
@@ -1427,7 +1423,7 @@
       </c>
       <c r="G42" s="13" t="inlineStr"/>
       <c r="H42" s="14" t="n">
-        <v>0</v>
+        <v>2620.2</v>
       </c>
     </row>
     <row r="43">
@@ -1461,7 +1457,7 @@
       </c>
       <c r="G43" s="10" t="inlineStr"/>
       <c r="H43" s="11" t="n">
-        <v>0</v>
+        <v>2620.2</v>
       </c>
     </row>
     <row r="44">
@@ -1495,7 +1491,7 @@
       </c>
       <c r="G44" s="13" t="inlineStr"/>
       <c r="H44" s="14" t="n">
-        <v>0</v>
+        <v>2620.2</v>
       </c>
     </row>
     <row r="45">
@@ -1529,7 +1525,7 @@
       </c>
       <c r="G45" s="10" t="inlineStr"/>
       <c r="H45" s="11" t="n">
-        <v>0</v>
+        <v>790.5599999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1563,7 +1559,7 @@
       </c>
       <c r="G46" s="13" t="inlineStr"/>
       <c r="H46" s="14" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="47">
@@ -1574,7 +1570,7 @@
       </c>
       <c r="B47" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-42W-I-C</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C47" s="9" t="inlineStr">
@@ -1584,7 +1580,7 @@
       </c>
       <c r="D47" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,42In Wire Mt,InsulatorAdder,Corr</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E47" s="9" t="inlineStr">
@@ -1593,11 +1589,11 @@
         </is>
       </c>
       <c r="F47" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="10" t="inlineStr"/>
       <c r="H47" s="11" t="n">
-        <v>0</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1608,7 +1604,7 @@
       </c>
       <c r="B48" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C48" s="12" t="inlineStr">
@@ -1618,7 +1614,7 @@
       </c>
       <c r="D48" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E48" s="12" t="inlineStr">
@@ -1631,7 +1627,7 @@
       </c>
       <c r="G48" s="13" t="inlineStr"/>
       <c r="H48" s="14" t="n">
-        <v>0</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1642,7 +1638,7 @@
       </c>
       <c r="B49" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C49" s="9" t="inlineStr">
@@ -1652,7 +1648,7 @@
       </c>
       <c r="D49" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E49" s="9" t="inlineStr">
@@ -1665,7 +1661,7 @@
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="50">
@@ -1676,7 +1672,7 @@
       </c>
       <c r="B50" s="12" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C50" s="12" t="inlineStr">
@@ -1686,20 +1682,20 @@
       </c>
       <c r="D50" s="12" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E50" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F50" s="13" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="51">
@@ -1710,7 +1706,7 @@
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
@@ -1720,7 +1716,7 @@
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1729,11 +1725,11 @@
         </is>
       </c>
       <c r="F51" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="52">
@@ -1744,7 +1740,7 @@
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SWI-27-CO1-100-H</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
@@ -1754,7 +1750,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1767,18 +1763,18 @@
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>ARR-10-R</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
@@ -1788,7 +1784,7 @@
       </c>
       <c r="D53" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>ARR,10kV,Riser Pole</t>
         </is>
       </c>
       <c r="E53" s="9" t="inlineStr">
@@ -1801,18 +1797,18 @@
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>0</v>
+        <v>66.72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
@@ -1822,7 +1818,7 @@
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
@@ -1831,22 +1827,22 @@
         </is>
       </c>
       <c r="F54" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B55" s="9" t="inlineStr">
         <is>
-          <t>SWI-27-CO1-100-H</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C55" s="9" t="inlineStr">
@@ -1856,7 +1852,7 @@
       </c>
       <c r="D55" s="9" t="inlineStr">
         <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E55" s="9" t="inlineStr">
@@ -1869,7 +1865,7 @@
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="56">
@@ -1880,7 +1876,7 @@
       </c>
       <c r="B56" s="12" t="inlineStr">
         <is>
-          <t>ARR-10-R</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C56" s="12" t="inlineStr">
@@ -1890,7 +1886,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>ARR,10kV,Riser Pole</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E56" s="12" t="inlineStr">
@@ -1903,7 +1899,7 @@
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="57">
@@ -1914,7 +1910,7 @@
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C57" s="9" t="inlineStr">
@@ -1924,7 +1920,7 @@
       </c>
       <c r="D57" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E57" s="9" t="inlineStr">
@@ -1933,11 +1929,11 @@
         </is>
       </c>
       <c r="F57" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="58">
@@ -1948,7 +1944,7 @@
       </c>
       <c r="B58" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SWI-27-CO1-100-H-C</t>
         </is>
       </c>
       <c r="C58" s="12" t="inlineStr">
@@ -1958,7 +1954,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
         </is>
       </c>
       <c r="E58" s="12" t="inlineStr">
@@ -1971,333 +1967,231 @@
       </c>
       <c r="G58" s="13" t="inlineStr"/>
       <c r="H58" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="9" t="inlineStr">
+      <c r="A59" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H59" s="16" t="n">
+        <v>15338.72</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (07/17/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B63" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D63" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F63" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H63" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="inlineStr">
         <is>
           <t>Point 10</t>
         </is>
       </c>
-      <c r="B59" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C59" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D59" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E59" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F59" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="10" t="inlineStr"/>
-      <c r="H59" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="12" t="inlineStr">
+      <c r="B64" s="9" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C64" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E64" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F64" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" s="10" t="inlineStr"/>
+      <c r="H64" s="11" t="n">
+        <v>238.2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="12" t="inlineStr">
         <is>
           <t>Point 10</t>
         </is>
       </c>
-      <c r="B60" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C60" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D60" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E60" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F60" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="13" t="inlineStr"/>
-      <c r="H60" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="9" t="inlineStr">
-        <is>
-          <t>Point 10</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="inlineStr">
-        <is>
-          <t>SWI-27-CO1-100-H-C</t>
-        </is>
-      </c>
-      <c r="C61" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D61" s="9" t="inlineStr">
-        <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
-        </is>
-      </c>
-      <c r="E61" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F61" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="10" t="inlineStr"/>
-      <c r="H61" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="15" t="inlineStr">
+      <c r="B65" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C65" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D65" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E65" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F65" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" s="13" t="inlineStr"/>
+      <c r="H65" s="14" t="n">
+        <v>238.2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B66" s="9" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C66" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E66" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F66" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" s="10" t="inlineStr"/>
+      <c r="H66" s="11" t="n">
+        <v>238.2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B67" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C67" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D67" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E67" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F67" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" s="13" t="inlineStr"/>
+      <c r="H67" s="14" t="n">
+        <v>238.2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H62" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (07/17/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B66" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C66" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D66" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E66" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F66" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G66" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H66" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="9" t="inlineStr">
-        <is>
-          <t>Point 10</t>
-        </is>
-      </c>
-      <c r="B67" s="9" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C67" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D67" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E67" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F67" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G67" s="10" t="inlineStr"/>
-      <c r="H67" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="12" t="inlineStr">
-        <is>
-          <t>Point 10</t>
-        </is>
-      </c>
-      <c r="B68" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C68" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D68" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E68" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F68" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G68" s="13" t="inlineStr"/>
-      <c r="H68" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B69" s="9" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C69" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D69" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E69" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F69" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G69" s="10" t="inlineStr"/>
-      <c r="H69" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B70" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C70" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D70" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E70" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F70" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G70" s="13" t="inlineStr"/>
-      <c r="H70" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H71" s="16" t="n">
-        <v>0</v>
+      <c r="H68" s="16" t="n">
+        <v>952.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A68:G68"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A65:H65"/>
-    <mergeCell ref="A62:G62"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A59:G59"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="G11:I11"/>
